--- a/en/application_framework/application_framework/batch/nablarch_batch/getting_started/images/images.xlsx
+++ b/en/application_framework/application_framework/batch/nablarch_batch/getting_started/images/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\batch\nablarch_batch\getting_started\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648BCE5D-3C0E-45D8-BC26-53E6907FC8D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="585" yWindow="1275" windowWidth="13245" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客登録" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,6 +112,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -127,7 +136,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvPr id="48" name="角丸四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -189,7 +204,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30"/>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -202,7 +223,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="29" name="グループ化 28"/>
+          <xdr:cNvPr id="29" name="グループ化 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -215,7 +242,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="26" name="グループ化 25"/>
+            <xdr:cNvPr id="26" name="グループ化 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -228,7 +261,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="角丸四角形 18"/>
+              <xdr:cNvPr id="19" name="角丸四角形 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -262,6 +301,17 @@
               <a:p>
                 <a:pPr algn="ctr"/>
                 <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>Mailing</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
@@ -270,14 +320,53 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   </a:rPr>
-                  <a:t>住所登録バッチ</a:t>
+                  <a:t> </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>address</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>registration batch</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-ea"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="2" name="メモ 1"/>
+              <xdr:cNvPr id="2" name="メモ 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -309,15 +398,26 @@
               <a:p>
                 <a:pPr algn="ctr"/>
                 <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-                  <a:t>住所ファイル</a:t>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                  <a:t>Mailing address</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+                  <a:t> file</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
               </a:p>
             </xdr:txBody>
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="13" name="左カーブ矢印 12"/>
+              <xdr:cNvPr id="13" name="左カーブ矢印 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -364,7 +464,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="14" name="円柱 13"/>
+              <xdr:cNvPr id="14" name="円柱 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -407,7 +513,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="23" name="下矢印 22"/>
+              <xdr:cNvPr id="23" name="下矢印 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -445,7 +557,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="線吹き出し 1 (枠付き) 27"/>
+            <xdr:cNvPr id="28" name="線吹き出し 1 (枠付き) 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -487,9 +605,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-                <a:t>郵便番号テーブル</a:t>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                <a:t>Zip code table</a:t>
               </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
                 <a:t>(ZIP_CODE_DATA)</a:t>
@@ -501,63 +622,19 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+          <xdr:cNvPr id="46" name="テキスト ボックス 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3495675" y="4724400"/>
-            <a:ext cx="1226618" cy="275717"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ファイル読み込み</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2828925" y="5810250"/>
-            <a:ext cx="771430" cy="275717"/>
+            <a:ext cx="677430" cy="264560"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -594,12 +671,66 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>DB</a:t>
+              <a:t>File read</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="テキスト ボックス 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2828925" y="5810250"/>
+            <a:ext cx="1361078" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>へ登録</a:t>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Register to database</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -610,7 +741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,9 +816,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,6 +868,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,11 +1060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="T21:X23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
@@ -946,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
